--- a/data/(1,0)/W++/summary_by_file_odd_even_general.xlsx
+++ b/data/(1,0)/W++/summary_by_file_odd_even_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(1^J0)/just_degree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(1^J0)/W^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4329B1A7D370DB36EFD82311595ED87656CCF56A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790F973D-C633-4071-BA79-2E4A568B2642}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4329B1A7D370DB36EFD82311595ED87656CCF56A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647A4162-C526-44C4-841D-07315371B994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
